--- a/biology/Zoologie/Hippolytidae/Hippolytidae.xlsx
+++ b/biology/Zoologie/Hippolytidae/Hippolytidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hippolytidae sont une famille de crustacés décapodes de la super-famille des Alpheoidea (crevettes).
 </t>
@@ -511,9 +523,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses études ont montré que la Protandrie (transformation de mâles en femelles) est un phénomène commun au sein de cette famille (mais chez certaines espèces uniquement chez les larves et postlarves) [1],[2],[3],[4],[5],[6] ainsi que dans l'infra-ordre où est rangée cette famille, par exemple chez les Pandalidae selon Jägersten (1936)[7] ; Mistakidis (1957)[8]; Allen (1959)[9] ; Butler (1964)[10] ; Berreur-Bonnenfant et Charniaux-Cotton en 1965[11] ; Hoffman (1972)[12]; Charnov (1981)[13], ou chez les Crangonidae selon Spitschakoff en 1912[14] ; Fréchette et al. (1970)[15] ou encore Boddeke et al. en 1991[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses études ont montré que la Protandrie (transformation de mâles en femelles) est un phénomène commun au sein de cette famille (mais chez certaines espèces uniquement chez les larves et postlarves)  ainsi que dans l'infra-ordre où est rangée cette famille, par exemple chez les Pandalidae selon Jägersten (1936) ; Mistakidis (1957); Allen (1959) ; Butler (1964) ; Berreur-Bonnenfant et Charniaux-Cotton en 1965 ; Hoffman (1972); Charnov (1981), ou chez les Crangonidae selon Spitschakoff en 1912 ; Fréchette et al. (1970) ou encore Boddeke et al. en 1991.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 janvier 2021)[17] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 janvier 2021) :
 genre Alope White, 1847b
 genre Caridion Goës, 1864
 genre Chorismus Spence Bate, 1888
